--- a/footbal_brain_core - anti gravity/football_prediction-main/evolution_logs/OLUM_RAPORU_CANLI.xlsx
+++ b/footbal_brain_core - anti gravity/football_prediction-main/evolution_logs/OLUM_RAPORU_CANLI.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96850,13 +96850,105 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="inlineStr">
+        <is>
+          <t>🌅 YENİ DÖNEM: Normal Run | Tarih: 2025-12-07 09:16:03 | Maç: 0+ | 0 LoRA ile başlanıyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="inlineStr">
+        <is>
+          <t>🌅 YENİ DÖNEM: Normal Run | Tarih: 2025-12-07 09:23:44 | Maç: 0+ | 0 LoRA ile başlanıyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="inlineStr">
+        <is>
+          <t>🌅 YENİ DÖNEM: Normal Run | Tarih: 2025-12-07 09:27:10 | Maç: 0+ | 0 LoRA ile başlanıyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="inlineStr">
+        <is>
+          <t>🌅 YENİ DÖNEM: Normal Run | Tarih: 2025-12-07 09:28:25 | Maç: 0+ | 0 LoRA ile başlanıyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="inlineStr">
+        <is>
+          <t>🌅 YENİ DÖNEM: Normal Run | Tarih: 2025-12-07 09:29:55 | Maç: 0+ | 0 LoRA ile başlanıyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="inlineStr">
+        <is>
+          <t>🌅 YENİ DÖNEM: Normal Run | Tarih: 2025-12-07 09:31:31 | Maç: 0+ | 0 LoRA ile başlanıyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017"/>
+    <row r="1018">
+      <c r="A1018" s="2" t="inlineStr">
+        <is>
+          <t>🌅 YENİ DÖNEM: Normal Run | Tarih: 2025-12-07 09:34:05 | Maç: 0+ | 0 LoRA ile başlanıyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019"/>
+    <row r="1020">
+      <c r="A1020" t="inlineStr"/>
+      <c r="B1020" t="inlineStr"/>
+      <c r="C1020" t="inlineStr"/>
+      <c r="D1020" t="inlineStr"/>
+      <c r="E1020" t="inlineStr"/>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="inlineStr"/>
+      <c r="H1020" t="inlineStr"/>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="inlineStr">
+        <is>
+          <t>🌅 YENİ DÖNEM: Normal Run | Tarih: 2025-12-07 09:37:41 | Maç: 0+ | 163 LoRA ile başlanıyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr"/>
+      <c r="B1022" t="inlineStr"/>
+      <c r="C1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr"/>
+      <c r="E1022" t="inlineStr"/>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="inlineStr"/>
+      <c r="H1022" t="inlineStr"/>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A720:K720"/>
     <mergeCell ref="A915:K915"/>
     <mergeCell ref="A981:K981"/>
+    <mergeCell ref="A1000:K1000"/>
+    <mergeCell ref="A1003:K1003"/>
+    <mergeCell ref="A1006:K1006"/>
+    <mergeCell ref="A1009:K1009"/>
+    <mergeCell ref="A1012:K1012"/>
+    <mergeCell ref="A1015:K1015"/>
+    <mergeCell ref="A1018:K1018"/>
+    <mergeCell ref="A1021:K1021"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
